--- a/xlsx/country_comparison/points_mean.xlsx
+++ b/xlsx/country_comparison/points_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">econ1</t>
@@ -422,308 +419,260 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1481481481481</v>
+        <v>16.4153846153846</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>18.9384615384615</v>
       </c>
       <c r="D2" t="n">
-        <v>28.4</v>
+        <v>32.8695652173913</v>
       </c>
       <c r="E2" t="n">
-        <v>23.9354838709677</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.88235294117647</v>
+        <v>33.7647058823529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>16.6666666666667</v>
+        <v>30.9122807017544</v>
       </c>
       <c r="C3" t="n">
-        <v>18.3076923076923</v>
+        <v>19.2638888888889</v>
       </c>
       <c r="D3" t="n">
-        <v>23.3076923076923</v>
+        <v>22.8125</v>
       </c>
       <c r="E3" t="n">
-        <v>19.9642857142857</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25.4375</v>
+        <v>22.4736842105263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>7.68181818181818</v>
+        <v>14.2045454545455</v>
       </c>
       <c r="C4" t="n">
-        <v>16.3333333333333</v>
+        <v>15.4864864864865</v>
       </c>
       <c r="D4" t="n">
-        <v>10.5714285714286</v>
+        <v>14.8983050847458</v>
       </c>
       <c r="E4" t="n">
-        <v>19.6551724137931</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17.7837837837838</v>
+        <v>15.8888888888889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>28.56</v>
+        <v>24.0689655172414</v>
       </c>
       <c r="C5" t="n">
-        <v>10.875</v>
+        <v>12.7397260273973</v>
       </c>
       <c r="D5" t="n">
+        <v>26.2037037037037</v>
+      </c>
+      <c r="E5" t="n">
         <v>19</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20.5769230769231</v>
-      </c>
-      <c r="F5" t="n">
-        <v>26.1818181818182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>8.57377049180328</v>
       </c>
       <c r="C6" t="n">
-        <v>21.3636363636364</v>
+        <v>11.9466666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>12.2222222222222</v>
+        <v>12.6818181818182</v>
       </c>
       <c r="E6" t="n">
-        <v>13.7391304347826</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9.04</v>
+        <v>16.4761904761905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>16.9583333333333</v>
+        <v>12.3148148148148</v>
       </c>
       <c r="C7" t="n">
-        <v>3.125</v>
+        <v>13.1159420289855</v>
       </c>
       <c r="D7" t="n">
-        <v>16.1666666666667</v>
+        <v>12.5208333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>13.8064516129032</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15.1290322580645</v>
+        <v>12.8571428571429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>9.45454545454546</v>
+        <v>9.88679245283019</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5238095238095</v>
+        <v>19.2575757575758</v>
       </c>
       <c r="D8" t="n">
-        <v>18.4</v>
+        <v>16.6363636363636</v>
       </c>
       <c r="E8" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12.0571428571429</v>
+        <v>16.7058823529412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>24.92</v>
+        <v>14.7272727272727</v>
       </c>
       <c r="C9" t="n">
-        <v>16.6428571428571</v>
+        <v>17.6619718309859</v>
       </c>
       <c r="D9" t="n">
-        <v>14.3888888888889</v>
+        <v>14.0178571428571</v>
       </c>
       <c r="E9" t="n">
-        <v>9.71428571428571</v>
-      </c>
-      <c r="F9" t="n">
-        <v>21.88</v>
+        <v>16.3684210526316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>5.21428571428571</v>
+        <v>7.33898305084746</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>11.8243243243243</v>
       </c>
       <c r="D10" t="n">
-        <v>9.58333333333333</v>
+        <v>10.1272727272727</v>
       </c>
       <c r="E10" t="n">
-        <v>13.0625</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.875</v>
+        <v>9.09523809523809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>14.5333333333333</v>
+        <v>14.7241379310345</v>
       </c>
       <c r="C11" t="n">
-        <v>26.4545454545455</v>
+        <v>15.4772727272727</v>
       </c>
       <c r="D11" t="n">
-        <v>12.25</v>
+        <v>15.48</v>
       </c>
       <c r="E11" t="n">
-        <v>13.1428571428571</v>
-      </c>
-      <c r="F11" t="n">
-        <v>19.75</v>
+        <v>11.5555555555556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>27.5161290322581</v>
+        <v>28.4255319148936</v>
       </c>
       <c r="C12" t="n">
-        <v>16.1428571428571</v>
+        <v>12.8</v>
       </c>
       <c r="D12" t="n">
-        <v>13.1</v>
+        <v>14.6511627906977</v>
       </c>
       <c r="E12" t="n">
-        <v>16.8064516129032</v>
-      </c>
-      <c r="F12" t="n">
-        <v>19.6428571428571</v>
+        <v>21.6842105263158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>22.962962962963</v>
+        <v>18.948275862069</v>
       </c>
       <c r="C13" t="n">
-        <v>16.7142857142857</v>
+        <v>25.6527777777778</v>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>18.18</v>
       </c>
       <c r="E13" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>13.9354838709677</v>
+        <v>19.6111111111111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>23.9491525423729</v>
       </c>
       <c r="C14" t="n">
-        <v>27.125</v>
+        <v>19.9473684210526</v>
       </c>
       <c r="D14" t="n">
-        <v>19.1428571428571</v>
+        <v>16.0217391304348</v>
       </c>
       <c r="E14" t="n">
-        <v>22.4571428571429</v>
-      </c>
-      <c r="F14" t="n">
-        <v>24.9230769230769</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>10.2962962962963</v>
+        <v>14.3518518518519</v>
       </c>
       <c r="C15" t="n">
-        <v>15.4736842105263</v>
+        <v>18.5507246376812</v>
       </c>
       <c r="D15" t="n">
-        <v>10.625</v>
+        <v>13.6415094339623</v>
       </c>
       <c r="E15" t="n">
-        <v>15.5185185185185</v>
-      </c>
-      <c r="F15" t="n">
-        <v>16.48</v>
+        <v>12.3809523809524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>17.0769230769231</v>
+        <v>12.8135593220339</v>
       </c>
       <c r="C16" t="n">
-        <v>3.15384615384615</v>
+        <v>17.7662337662338</v>
       </c>
       <c r="D16" t="n">
-        <v>7.54545454545455</v>
+        <v>10.1276595744681</v>
       </c>
       <c r="E16" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.26666666666667</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_mean.xlsx
+++ b/xlsx/country_comparison/points_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">econ1</t>
@@ -419,260 +422,308 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>16.4153846153846</v>
+        <v>10.5823754789272</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9384615384615</v>
+        <v>14.3776978417266</v>
       </c>
       <c r="D2" t="n">
-        <v>32.8695652173913</v>
+        <v>33.2039800995025</v>
       </c>
       <c r="E2" t="n">
-        <v>33.7647058823529</v>
+        <v>30.8287937743191</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14.3871681415929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>30.9122807017544</v>
+        <v>24.1853281853282</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2638888888889</v>
+        <v>20.1114864864865</v>
       </c>
       <c r="D3" t="n">
-        <v>22.8125</v>
+        <v>21.4766355140187</v>
       </c>
       <c r="E3" t="n">
-        <v>22.4736842105263</v>
+        <v>23.3176895306859</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.1936542669584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2045454545455</v>
+        <v>13.9748953974895</v>
       </c>
       <c r="C4" t="n">
-        <v>15.4864864864865</v>
+        <v>18.2904290429043</v>
       </c>
       <c r="D4" t="n">
-        <v>14.8983050847458</v>
+        <v>16.3183856502242</v>
       </c>
       <c r="E4" t="n">
-        <v>15.8888888888889</v>
+        <v>10.1853281853282</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.7176981541802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>24.0689655172414</v>
+        <v>27.1274131274131</v>
       </c>
       <c r="C5" t="n">
-        <v>12.7397260273973</v>
+        <v>16.214983713355</v>
       </c>
       <c r="D5" t="n">
-        <v>26.2037037037037</v>
+        <v>25.6869158878505</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>22.4856115107914</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.7279821627648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>8.57377049180328</v>
+        <v>12.6984126984127</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9466666666667</v>
+        <v>16.5833333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>12.6818181818182</v>
+        <v>12.3405172413793</v>
       </c>
       <c r="E6" t="n">
-        <v>16.4761904761905</v>
+        <v>23.6339622641509</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.0673076923077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3148148148148</v>
+        <v>13.848623853211</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1159420289855</v>
+        <v>8.44055944055944</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5208333333333</v>
+        <v>9.73684210526316</v>
       </c>
       <c r="E7" t="n">
-        <v>12.8571428571429</v>
+        <v>5.39114391143911</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.4772486772487</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>9.88679245283019</v>
+        <v>11.2057613168724</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2575757575758</v>
+        <v>17.5180327868852</v>
       </c>
       <c r="D8" t="n">
-        <v>16.6363636363636</v>
+        <v>20.521327014218</v>
       </c>
       <c r="E8" t="n">
-        <v>16.7058823529412</v>
+        <v>12.8588709677419</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.0299896587384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7272727272727</v>
+        <v>20.8222222222222</v>
       </c>
       <c r="C9" t="n">
-        <v>17.6619718309859</v>
+        <v>18.5631067961165</v>
       </c>
       <c r="D9" t="n">
-        <v>14.0178571428571</v>
+        <v>14.4691943127962</v>
       </c>
       <c r="E9" t="n">
-        <v>16.3684210526316</v>
+        <v>17.972</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.6789989118607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>7.33898305084746</v>
+        <v>8.50387596899225</v>
       </c>
       <c r="C10" t="n">
-        <v>11.8243243243243</v>
+        <v>9.18210862619808</v>
       </c>
       <c r="D10" t="n">
-        <v>10.1272727272727</v>
+        <v>8.87614678899082</v>
       </c>
       <c r="E10" t="n">
-        <v>9.09523809523809</v>
+        <v>11.7480916030534</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.344502617801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>14.7241379310345</v>
+        <v>15.8143459915612</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4772727272727</v>
+        <v>15.5368098159509</v>
       </c>
       <c r="D11" t="n">
-        <v>15.48</v>
+        <v>14.4887892376682</v>
       </c>
       <c r="E11" t="n">
-        <v>11.5555555555556</v>
+        <v>15.8978723404255</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.2456331877729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>28.4255319148936</v>
+        <v>21.5924369747899</v>
       </c>
       <c r="C12" t="n">
-        <v>12.8</v>
+        <v>17.877133105802</v>
       </c>
       <c r="D12" t="n">
-        <v>14.6511627906977</v>
+        <v>16.7920792079208</v>
       </c>
       <c r="E12" t="n">
-        <v>21.6842105263158</v>
+        <v>20.1991701244813</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19.5309917355372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>18.948275862069</v>
+        <v>20.3899082568807</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6527777777778</v>
+        <v>23.9665551839465</v>
       </c>
       <c r="D13" t="n">
-        <v>18.18</v>
+        <v>16.725321888412</v>
       </c>
       <c r="E13" t="n">
-        <v>19.6111111111111</v>
+        <v>16.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.4519337016575</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9491525423729</v>
+        <v>20.7725490196078</v>
       </c>
       <c r="C14" t="n">
-        <v>19.9473684210526</v>
+        <v>22.5249169435216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.0217391304348</v>
+        <v>18.8325123152709</v>
       </c>
       <c r="E14" t="n">
-        <v>18.45</v>
+        <v>19.4961538461538</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.1214750542299</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3518518518519</v>
+        <v>15.4666666666667</v>
       </c>
       <c r="C15" t="n">
-        <v>18.5507246376812</v>
+        <v>16.8954703832753</v>
       </c>
       <c r="D15" t="n">
-        <v>13.6415094339623</v>
+        <v>13.5321888412017</v>
       </c>
       <c r="E15" t="n">
-        <v>12.3809523809524</v>
+        <v>12.992337164751</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14.8700102354145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>12.8135593220339</v>
+        <v>12.7015503875969</v>
       </c>
       <c r="C16" t="n">
-        <v>17.7662337662338</v>
+        <v>13.9428571428571</v>
       </c>
       <c r="D16" t="n">
-        <v>10.1276595744681</v>
+        <v>9.44588744588745</v>
       </c>
       <c r="E16" t="n">
-        <v>5.4</v>
+        <v>5.91836734693878</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.01342281879195</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_mean.xlsx
+++ b/xlsx/country_comparison/points_mean.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">econ1</t>
   </si>
   <si>
-    <t xml:space="preserve">econ2</t>
+    <t xml:space="preserve">econ2: [Higher minimum wage] (DE: Bürgerversicherung)</t>
   </si>
   <si>
     <t xml:space="preserve">econ3</t>
@@ -53,16 +53,16 @@
     <t xml:space="preserve">climate1</t>
   </si>
   <si>
-    <t xml:space="preserve">climate2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate3</t>
+    <t xml:space="preserve">climate2: Thermal insulation plan (US: also transport)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate3: Ban the sale of new combustion-engine cars by 2030</t>
   </si>
   <si>
     <t xml:space="preserve">tax1: National redistribution scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">tax2: Wealth tax</t>
+    <t xml:space="preserve">tax2: Wealth tax (ES: raise tax on top incomes)</t>
   </si>
   <si>
     <t xml:space="preserve">foreign1: Global climate scheme</t>
@@ -431,19 +431,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>10.5823754789272</v>
+        <v>10.4467040102396</v>
       </c>
       <c r="C2" t="n">
-        <v>14.3776978417266</v>
+        <v>13.793506488871</v>
       </c>
       <c r="D2" t="n">
-        <v>33.2039800995025</v>
+        <v>33.4285378610371</v>
       </c>
       <c r="E2" t="n">
-        <v>30.8287937743191</v>
+        <v>31.4865564381359</v>
       </c>
       <c r="F2" t="n">
-        <v>14.3871681415929</v>
+        <v>13.6039618824325</v>
       </c>
     </row>
     <row r="3">
@@ -451,19 +451,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>24.1853281853282</v>
+        <v>24.2227539691898</v>
       </c>
       <c r="C3" t="n">
-        <v>20.1114864864865</v>
+        <v>20.2997051838187</v>
       </c>
       <c r="D3" t="n">
-        <v>21.4766355140187</v>
+        <v>21.6262763171488</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3176895306859</v>
+        <v>23.9445753524494</v>
       </c>
       <c r="F3" t="n">
-        <v>23.1936542669584</v>
+        <v>23.8559424973029</v>
       </c>
     </row>
     <row r="4">
@@ -471,19 +471,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9748953974895</v>
+        <v>13.7607790066904</v>
       </c>
       <c r="C4" t="n">
-        <v>18.2904290429043</v>
+        <v>18.4494315486182</v>
       </c>
       <c r="D4" t="n">
-        <v>16.3183856502242</v>
+        <v>16.3393906696946</v>
       </c>
       <c r="E4" t="n">
-        <v>10.1853281853282</v>
+        <v>10.3841286945239</v>
       </c>
       <c r="F4" t="n">
-        <v>21.7176981541802</v>
+        <v>21.3342541217284</v>
       </c>
     </row>
     <row r="5">
@@ -491,19 +491,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>27.1274131274131</v>
+        <v>26.759180929332</v>
       </c>
       <c r="C5" t="n">
-        <v>16.214983713355</v>
+        <v>17.4420727350957</v>
       </c>
       <c r="D5" t="n">
-        <v>25.6869158878505</v>
+        <v>25.5529052663391</v>
       </c>
       <c r="E5" t="n">
-        <v>22.4856115107914</v>
+        <v>23.1925894869948</v>
       </c>
       <c r="F5" t="n">
-        <v>27.7279821627648</v>
+        <v>28.090092373715</v>
       </c>
     </row>
     <row r="6">
@@ -511,19 +511,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6984126984127</v>
+        <v>12.1336294014379</v>
       </c>
       <c r="C6" t="n">
-        <v>16.5833333333333</v>
+        <v>16.6667675734492</v>
       </c>
       <c r="D6" t="n">
-        <v>12.3405172413793</v>
+        <v>12.3984313125386</v>
       </c>
       <c r="E6" t="n">
-        <v>23.6339622641509</v>
+        <v>23.7587424732736</v>
       </c>
       <c r="F6" t="n">
-        <v>10.0673076923077</v>
+        <v>9.82036150239905</v>
       </c>
     </row>
     <row r="7">
@@ -531,19 +531,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>13.848623853211</v>
+        <v>14.3833226925082</v>
       </c>
       <c r="C7" t="n">
-        <v>8.44055944055944</v>
+        <v>8.43800850980403</v>
       </c>
       <c r="D7" t="n">
-        <v>9.73684210526316</v>
+        <v>9.95899719925207</v>
       </c>
       <c r="E7" t="n">
-        <v>5.39114391143911</v>
+        <v>5.17892022203917</v>
       </c>
       <c r="F7" t="n">
-        <v>13.4772486772487</v>
+        <v>13.2033316177662</v>
       </c>
     </row>
     <row r="8">
@@ -551,19 +551,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>11.2057613168724</v>
+        <v>11.2966743751091</v>
       </c>
       <c r="C8" t="n">
-        <v>17.5180327868852</v>
+        <v>17.2288749322414</v>
       </c>
       <c r="D8" t="n">
-        <v>20.521327014218</v>
+        <v>20.2030075606901</v>
       </c>
       <c r="E8" t="n">
-        <v>12.8588709677419</v>
+        <v>12.3144340080439</v>
       </c>
       <c r="F8" t="n">
-        <v>13.0299896587384</v>
+        <v>13.2905127325891</v>
       </c>
     </row>
     <row r="9">
@@ -571,19 +571,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8222222222222</v>
+        <v>21.363953955022</v>
       </c>
       <c r="C9" t="n">
-        <v>18.5631067961165</v>
+        <v>18.8901872947056</v>
       </c>
       <c r="D9" t="n">
-        <v>14.4691943127962</v>
+        <v>14.5223616545151</v>
       </c>
       <c r="E9" t="n">
-        <v>17.972</v>
+        <v>17.0422442863383</v>
       </c>
       <c r="F9" t="n">
-        <v>19.6789989118607</v>
+        <v>19.8647857962297</v>
       </c>
     </row>
     <row r="10">
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>8.50387596899225</v>
+        <v>8.51641448732793</v>
       </c>
       <c r="C10" t="n">
-        <v>9.18210862619808</v>
+        <v>8.64206126745131</v>
       </c>
       <c r="D10" t="n">
-        <v>8.87614678899082</v>
+        <v>8.7710927866815</v>
       </c>
       <c r="E10" t="n">
-        <v>11.7480916030534</v>
+        <v>11.2676920264459</v>
       </c>
       <c r="F10" t="n">
-        <v>10.344502617801</v>
+        <v>10.3327743770709</v>
       </c>
     </row>
     <row r="11">
@@ -611,19 +611,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>15.8143459915612</v>
+        <v>15.7572805798254</v>
       </c>
       <c r="C11" t="n">
-        <v>15.5368098159509</v>
+        <v>15.4999519756861</v>
       </c>
       <c r="D11" t="n">
-        <v>14.4887892376682</v>
+        <v>14.7971671508049</v>
       </c>
       <c r="E11" t="n">
-        <v>15.8978723404255</v>
+        <v>15.8155206597619</v>
       </c>
       <c r="F11" t="n">
-        <v>13.2456331877729</v>
+        <v>13.6025504006888</v>
       </c>
     </row>
     <row r="12">
@@ -631,19 +631,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5924369747899</v>
+        <v>21.8912100783773</v>
       </c>
       <c r="C12" t="n">
-        <v>17.877133105802</v>
+        <v>17.5105633189556</v>
       </c>
       <c r="D12" t="n">
-        <v>16.7920792079208</v>
+        <v>17.3198804312907</v>
       </c>
       <c r="E12" t="n">
-        <v>20.1991701244813</v>
+        <v>19.881381664171</v>
       </c>
       <c r="F12" t="n">
-        <v>19.5309917355372</v>
+        <v>19.2020476395347</v>
       </c>
     </row>
     <row r="13">
@@ -651,19 +651,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3899082568807</v>
+        <v>20.7654027867964</v>
       </c>
       <c r="C13" t="n">
-        <v>23.9665551839465</v>
+        <v>24.1425202182024</v>
       </c>
       <c r="D13" t="n">
-        <v>16.725321888412</v>
+        <v>16.1386534125875</v>
       </c>
       <c r="E13" t="n">
-        <v>16.2</v>
+        <v>16.3714376557107</v>
       </c>
       <c r="F13" t="n">
-        <v>15.4519337016575</v>
+        <v>15.3575010744074</v>
       </c>
     </row>
     <row r="14">
@@ -671,19 +671,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7725490196078</v>
+        <v>20.5724192290669</v>
       </c>
       <c r="C14" t="n">
-        <v>22.5249169435216</v>
+        <v>22.4830104855058</v>
       </c>
       <c r="D14" t="n">
-        <v>18.8325123152709</v>
+        <v>19.235692440498</v>
       </c>
       <c r="E14" t="n">
-        <v>19.4961538461538</v>
+        <v>19.1597090095456</v>
       </c>
       <c r="F14" t="n">
-        <v>20.1214750542299</v>
+        <v>20.2766526870666</v>
       </c>
     </row>
     <row r="15">
@@ -691,19 +691,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>15.4666666666667</v>
+        <v>15.1337944105301</v>
       </c>
       <c r="C15" t="n">
-        <v>16.8954703832753</v>
+        <v>16.7576289345272</v>
       </c>
       <c r="D15" t="n">
-        <v>13.5321888412017</v>
+        <v>13.7772932132341</v>
       </c>
       <c r="E15" t="n">
-        <v>12.992337164751</v>
+        <v>12.8264928693953</v>
       </c>
       <c r="F15" t="n">
-        <v>14.8700102354145</v>
+        <v>14.5349272405545</v>
       </c>
     </row>
     <row r="16">
@@ -711,19 +711,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>12.7015503875969</v>
+        <v>12.6714516949659</v>
       </c>
       <c r="C16" t="n">
-        <v>13.9428571428571</v>
+        <v>13.6798903753726</v>
       </c>
       <c r="D16" t="n">
-        <v>9.44588744588745</v>
+        <v>8.96125378065031</v>
       </c>
       <c r="E16" t="n">
-        <v>5.91836734693878</v>
+        <v>6.30511131501409</v>
       </c>
       <c r="F16" t="n">
-        <v>9.01342281879195</v>
+        <v>8.85174096631253</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_mean.xlsx
+++ b/xlsx/country_comparison/points_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">econ1</t>
@@ -425,305 +428,353 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4467040102396</v>
+        <v>13.6039618824325</v>
       </c>
       <c r="C2" t="n">
-        <v>13.793506488871</v>
+        <v>20.7580901267308</v>
       </c>
       <c r="D2" t="n">
-        <v>33.4285378610371</v>
+        <v>9.94351263773665</v>
       </c>
       <c r="E2" t="n">
-        <v>31.4865564381359</v>
+        <v>13.7562723077146</v>
       </c>
       <c r="F2" t="n">
-        <v>13.6039618824325</v>
+        <v>33.6493134634271</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31.3831597218078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>24.2227539691898</v>
+        <v>23.8559424973029</v>
       </c>
       <c r="C3" t="n">
-        <v>20.2997051838187</v>
+        <v>22.4695022950626</v>
       </c>
       <c r="D3" t="n">
-        <v>21.6262763171488</v>
+        <v>25.564404519638</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9445753524494</v>
+        <v>20.6950299207817</v>
       </c>
       <c r="F3" t="n">
-        <v>23.8559424973029</v>
+        <v>22.7127417530857</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23.8834056294113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>13.7607790066904</v>
+        <v>21.3342541217284</v>
       </c>
       <c r="C4" t="n">
-        <v>18.4494315486182</v>
+        <v>14.8756897116494</v>
       </c>
       <c r="D4" t="n">
-        <v>16.3393906696946</v>
+        <v>11.8932102753591</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3841286945239</v>
+        <v>19.5986468245433</v>
       </c>
       <c r="F4" t="n">
-        <v>21.3342541217284</v>
+        <v>16.2961067554212</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.8165968690898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>26.759180929332</v>
+        <v>28.090092373715</v>
       </c>
       <c r="C5" t="n">
-        <v>17.4420727350957</v>
+        <v>22.6093641326262</v>
       </c>
       <c r="D5" t="n">
-        <v>25.5529052663391</v>
+        <v>27.9861758936201</v>
       </c>
       <c r="E5" t="n">
-        <v>23.1925894869948</v>
+        <v>18.5380738899842</v>
       </c>
       <c r="F5" t="n">
-        <v>28.090092373715</v>
+        <v>24.2664162518499</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20.4761703506234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1336294014379</v>
+        <v>9.82036150239905</v>
       </c>
       <c r="C6" t="n">
-        <v>16.6667675734492</v>
+        <v>16.5154187643457</v>
       </c>
       <c r="D6" t="n">
-        <v>12.3984313125386</v>
+        <v>12.2282323611892</v>
       </c>
       <c r="E6" t="n">
-        <v>23.7587424732736</v>
+        <v>16.2823508397506</v>
       </c>
       <c r="F6" t="n">
-        <v>9.82036150239905</v>
+        <v>12.3052123636475</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.4797817598742</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3833226925082</v>
+        <v>13.2033316177662</v>
       </c>
       <c r="C7" t="n">
-        <v>8.43800850980403</v>
+        <v>9.16088188475529</v>
       </c>
       <c r="D7" t="n">
-        <v>9.95899719925207</v>
+        <v>14.1408825876277</v>
       </c>
       <c r="E7" t="n">
-        <v>5.17892022203917</v>
+        <v>7.97834954209964</v>
       </c>
       <c r="F7" t="n">
-        <v>13.2033316177662</v>
+        <v>9.20872311813812</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.96415954706932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>11.2966743751091</v>
+        <v>13.2905127325891</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2288749322414</v>
+        <v>15.1264337547674</v>
       </c>
       <c r="D8" t="n">
-        <v>20.2030075606901</v>
+        <v>11.002978226949</v>
       </c>
       <c r="E8" t="n">
-        <v>12.3144340080439</v>
+        <v>16.4354651737169</v>
       </c>
       <c r="F8" t="n">
-        <v>13.2905127325891</v>
+        <v>19.52555670156</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.9261387968093</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>21.363953955022</v>
+        <v>19.8647857962297</v>
       </c>
       <c r="C9" t="n">
-        <v>18.8901872947056</v>
+        <v>18.3371410191662</v>
       </c>
       <c r="D9" t="n">
-        <v>14.5223616545151</v>
+        <v>21.3916829323902</v>
       </c>
       <c r="E9" t="n">
-        <v>17.0422442863383</v>
+        <v>19.1890596450258</v>
       </c>
       <c r="F9" t="n">
-        <v>19.8647857962297</v>
+        <v>14.5843164490861</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.1622898246045</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>8.51641448732793</v>
+        <v>10.3327743770709</v>
       </c>
       <c r="C10" t="n">
-        <v>8.64206126745131</v>
+        <v>9.28580484362968</v>
       </c>
       <c r="D10" t="n">
-        <v>8.7710927866815</v>
+        <v>7.92424242267322</v>
       </c>
       <c r="E10" t="n">
-        <v>11.2676920264459</v>
+        <v>8.04114906051869</v>
       </c>
       <c r="F10" t="n">
-        <v>10.3327743770709</v>
+        <v>8.13614196845875</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11.6970664544525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>15.7572805798254</v>
+        <v>13.6025504006888</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4999519756861</v>
+        <v>15.4947337580279</v>
       </c>
       <c r="D11" t="n">
-        <v>14.7971671508049</v>
+        <v>16.3897317485706</v>
       </c>
       <c r="E11" t="n">
-        <v>15.8155206597619</v>
+        <v>14.9414074674199</v>
       </c>
       <c r="F11" t="n">
-        <v>13.6025504006888</v>
+        <v>15.084359237808</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.5893597908204</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>21.8912100783773</v>
+        <v>19.2020476395347</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5105633189556</v>
+        <v>19.1459796203672</v>
       </c>
       <c r="D12" t="n">
-        <v>17.3198804312907</v>
+        <v>21.9819421234041</v>
       </c>
       <c r="E12" t="n">
-        <v>19.881381664171</v>
+        <v>18.2872906504179</v>
       </c>
       <c r="F12" t="n">
-        <v>19.2020476395347</v>
+        <v>16.7531367315209</v>
+      </c>
+      <c r="G12" t="n">
+        <v>19.7501776750182</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7654027867964</v>
+        <v>15.3575010744074</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1425202182024</v>
+        <v>19.8499758230099</v>
       </c>
       <c r="D13" t="n">
-        <v>16.1386534125875</v>
+        <v>20.2800147823869</v>
       </c>
       <c r="E13" t="n">
-        <v>16.3714376557107</v>
+        <v>23.1700006514836</v>
       </c>
       <c r="F13" t="n">
-        <v>15.3575010744074</v>
+        <v>16.4802012162572</v>
+      </c>
+      <c r="G13" t="n">
+        <v>18.078232420158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>20.5724192290669</v>
+        <v>20.2766526870666</v>
       </c>
       <c r="C14" t="n">
-        <v>22.4830104855058</v>
+        <v>20.6006044661311</v>
       </c>
       <c r="D14" t="n">
-        <v>19.235692440498</v>
+        <v>20.8027651931457</v>
       </c>
       <c r="E14" t="n">
-        <v>19.1597090095456</v>
+        <v>23.1441924044685</v>
       </c>
       <c r="F14" t="n">
-        <v>20.2766526870666</v>
+        <v>20.6047747168166</v>
+      </c>
+      <c r="G14" t="n">
+        <v>19.6132784999169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1337944105301</v>
+        <v>14.5349272405545</v>
       </c>
       <c r="C15" t="n">
-        <v>16.7576289345272</v>
+        <v>14.8091610326699</v>
       </c>
       <c r="D15" t="n">
-        <v>13.7772932132341</v>
+        <v>15.2546474698842</v>
       </c>
       <c r="E15" t="n">
-        <v>12.8264928693953</v>
+        <v>15.9299914658211</v>
       </c>
       <c r="F15" t="n">
-        <v>14.5349272405545</v>
+        <v>13.7725689015746</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.6563250510393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>12.6714516949659</v>
+        <v>8.85174096631253</v>
       </c>
       <c r="C16" t="n">
-        <v>13.6798903753726</v>
+        <v>10.7832565555979</v>
       </c>
       <c r="D16" t="n">
-        <v>8.96125378065031</v>
+        <v>12.4827506514557</v>
       </c>
       <c r="E16" t="n">
-        <v>6.30511131501409</v>
+        <v>13.6925208977088</v>
       </c>
       <c r="F16" t="n">
-        <v>8.85174096631253</v>
+        <v>9.13172431583085</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.59125256847007</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_mean.xlsx
+++ b/xlsx/country_comparison/points_mean.xlsx
@@ -437,22 +437,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>13.6039618824325</v>
+        <v>13.4341568081612</v>
       </c>
       <c r="C2" t="n">
-        <v>20.7580901267308</v>
+        <v>21.1011814593972</v>
       </c>
       <c r="D2" t="n">
-        <v>9.94351263773665</v>
+        <v>10.2687307000013</v>
       </c>
       <c r="E2" t="n">
-        <v>13.7562723077146</v>
+        <v>14.0689412351052</v>
       </c>
       <c r="F2" t="n">
-        <v>33.6493134634271</v>
+        <v>33.7725703761314</v>
       </c>
       <c r="G2" t="n">
-        <v>31.3831597218078</v>
+        <v>31.0204999829579</v>
       </c>
     </row>
     <row r="3">
@@ -460,22 +460,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>23.8559424973029</v>
+        <v>23.0422939253684</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4695022950626</v>
+        <v>22.2720423244591</v>
       </c>
       <c r="D3" t="n">
-        <v>25.564404519638</v>
+        <v>25.2934614185111</v>
       </c>
       <c r="E3" t="n">
-        <v>20.6950299207817</v>
+        <v>20.7469009816582</v>
       </c>
       <c r="F3" t="n">
-        <v>22.7127417530857</v>
+        <v>22.4856303939815</v>
       </c>
       <c r="G3" t="n">
-        <v>23.8834056294113</v>
+        <v>23.2194328201891</v>
       </c>
     </row>
     <row r="4">
@@ -483,22 +483,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>21.3342541217284</v>
+        <v>21.226847136677</v>
       </c>
       <c r="C4" t="n">
-        <v>14.8756897116494</v>
+        <v>15.1871428366816</v>
       </c>
       <c r="D4" t="n">
-        <v>11.8932102753591</v>
+        <v>12.850731448256</v>
       </c>
       <c r="E4" t="n">
-        <v>19.5986468245433</v>
+        <v>18.2458685830623</v>
       </c>
       <c r="F4" t="n">
-        <v>16.2961067554212</v>
+        <v>16.267822720123</v>
       </c>
       <c r="G4" t="n">
-        <v>11.8165968690898</v>
+        <v>12.7666762014579</v>
       </c>
     </row>
     <row r="5">
@@ -506,22 +506,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>28.090092373715</v>
+        <v>27.7724690455023</v>
       </c>
       <c r="C5" t="n">
-        <v>22.6093641326262</v>
+        <v>21.8709029103425</v>
       </c>
       <c r="D5" t="n">
-        <v>27.9861758936201</v>
+        <v>27.336744911919</v>
       </c>
       <c r="E5" t="n">
-        <v>18.5380738899842</v>
+        <v>17.4471967230454</v>
       </c>
       <c r="F5" t="n">
-        <v>24.2664162518499</v>
+        <v>24.1300574411812</v>
       </c>
       <c r="G5" t="n">
-        <v>20.4761703506234</v>
+        <v>20.3442859797975</v>
       </c>
     </row>
     <row r="6">
@@ -529,22 +529,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>9.82036150239905</v>
+        <v>10.1883020310455</v>
       </c>
       <c r="C6" t="n">
-        <v>16.5154187643457</v>
+        <v>16.5935406552981</v>
       </c>
       <c r="D6" t="n">
-        <v>12.2282323611892</v>
+        <v>13.2599868441119</v>
       </c>
       <c r="E6" t="n">
-        <v>16.2823508397506</v>
+        <v>17.0153776789283</v>
       </c>
       <c r="F6" t="n">
-        <v>12.3052123636475</v>
+        <v>12.1410472467563</v>
       </c>
       <c r="G6" t="n">
-        <v>19.4797817598742</v>
+        <v>21.3050301220087</v>
       </c>
     </row>
     <row r="7">
@@ -552,22 +552,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>13.2033316177662</v>
+        <v>13.3821457792595</v>
       </c>
       <c r="C7" t="n">
-        <v>9.16088188475529</v>
+        <v>9.50438140229945</v>
       </c>
       <c r="D7" t="n">
-        <v>14.1408825876277</v>
+        <v>13.9624912340961</v>
       </c>
       <c r="E7" t="n">
-        <v>7.97834954209964</v>
+        <v>8.02513529069277</v>
       </c>
       <c r="F7" t="n">
-        <v>9.20872311813812</v>
+        <v>9.50155526949324</v>
       </c>
       <c r="G7" t="n">
-        <v>5.96415954706932</v>
+        <v>7.50184944745286</v>
       </c>
     </row>
     <row r="8">
@@ -575,22 +575,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>13.2905127325891</v>
+        <v>13.7029342469336</v>
       </c>
       <c r="C8" t="n">
-        <v>15.1264337547674</v>
+        <v>15.2187750056284</v>
       </c>
       <c r="D8" t="n">
-        <v>11.002978226949</v>
+        <v>11.4479074056977</v>
       </c>
       <c r="E8" t="n">
-        <v>16.4354651737169</v>
+        <v>17.5085401320051</v>
       </c>
       <c r="F8" t="n">
-        <v>19.52555670156</v>
+        <v>19.5433035837634</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9261387968093</v>
+        <v>12.4358202626166</v>
       </c>
     </row>
     <row r="9">
@@ -598,22 +598,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>19.8647857962297</v>
+        <v>19.750827534774</v>
       </c>
       <c r="C9" t="n">
-        <v>18.3371410191662</v>
+        <v>18.3685003289164</v>
       </c>
       <c r="D9" t="n">
-        <v>21.3916829323902</v>
+        <v>22.0680454504313</v>
       </c>
       <c r="E9" t="n">
-        <v>19.1890596450258</v>
+        <v>18.6326875618201</v>
       </c>
       <c r="F9" t="n">
-        <v>14.5843164490861</v>
+        <v>14.580904908348</v>
       </c>
       <c r="G9" t="n">
-        <v>16.1622898246045</v>
+        <v>16.5454056273926</v>
       </c>
     </row>
     <row r="10">
@@ -621,22 +621,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>10.3327743770709</v>
+        <v>10.5548976294697</v>
       </c>
       <c r="C10" t="n">
-        <v>9.28580484362968</v>
+        <v>9.05385369294387</v>
       </c>
       <c r="D10" t="n">
-        <v>7.92424242267322</v>
+        <v>7.74930207696273</v>
       </c>
       <c r="E10" t="n">
-        <v>8.04114906051869</v>
+        <v>7.88677920968235</v>
       </c>
       <c r="F10" t="n">
-        <v>8.13614196845875</v>
+        <v>8.35688326602716</v>
       </c>
       <c r="G10" t="n">
-        <v>11.6970664544525</v>
+        <v>11.43861621882</v>
       </c>
     </row>
     <row r="11">
@@ -644,22 +644,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>13.6025504006888</v>
+        <v>13.5833131639366</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4947337580279</v>
+        <v>15.2214813109547</v>
       </c>
       <c r="D11" t="n">
-        <v>16.3897317485706</v>
+        <v>15.5360574790189</v>
       </c>
       <c r="E11" t="n">
-        <v>14.9414074674199</v>
+        <v>15.395388364277</v>
       </c>
       <c r="F11" t="n">
-        <v>15.084359237808</v>
+        <v>15.2003779074386</v>
       </c>
       <c r="G11" t="n">
-        <v>16.5893597908204</v>
+        <v>15.0959134387462</v>
       </c>
     </row>
     <row r="12">
@@ -667,22 +667,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>19.2020476395347</v>
+        <v>19.0356774935159</v>
       </c>
       <c r="C12" t="n">
-        <v>19.1459796203672</v>
+        <v>18.9099105514842</v>
       </c>
       <c r="D12" t="n">
-        <v>21.9819421234041</v>
+        <v>21.13548919729</v>
       </c>
       <c r="E12" t="n">
-        <v>18.2872906504179</v>
+        <v>18.329661103185</v>
       </c>
       <c r="F12" t="n">
-        <v>16.7531367315209</v>
+        <v>16.6254251616934</v>
       </c>
       <c r="G12" t="n">
-        <v>19.7501776750182</v>
+        <v>19.4056591092634</v>
       </c>
     </row>
     <row r="13">
@@ -690,22 +690,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>15.3575010744074</v>
+        <v>15.4005809613817</v>
       </c>
       <c r="C13" t="n">
-        <v>19.8499758230099</v>
+        <v>19.8056264122474</v>
       </c>
       <c r="D13" t="n">
-        <v>20.2800147823869</v>
+        <v>20.2156239967134</v>
       </c>
       <c r="E13" t="n">
-        <v>23.1700006514836</v>
+        <v>22.9297880088363</v>
       </c>
       <c r="F13" t="n">
-        <v>16.4802012162572</v>
+        <v>16.4097083323068</v>
       </c>
       <c r="G13" t="n">
-        <v>18.078232420158</v>
+        <v>17.3465588315424</v>
       </c>
     </row>
     <row r="14">
@@ -713,22 +713,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>20.2766526870666</v>
+        <v>20.6290140862445</v>
       </c>
       <c r="C14" t="n">
-        <v>20.6006044661311</v>
+        <v>20.7072796003044</v>
       </c>
       <c r="D14" t="n">
-        <v>20.8027651931457</v>
+        <v>20.2473130485682</v>
       </c>
       <c r="E14" t="n">
-        <v>23.1441924044685</v>
+        <v>22.9189334163752</v>
       </c>
       <c r="F14" t="n">
-        <v>20.6047747168166</v>
+        <v>20.4634707641798</v>
       </c>
       <c r="G14" t="n">
-        <v>19.6132784999169</v>
+        <v>19.8684650369788</v>
       </c>
     </row>
     <row r="15">
@@ -736,22 +736,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5349272405545</v>
+        <v>14.6457036649508</v>
       </c>
       <c r="C15" t="n">
-        <v>14.8091610326699</v>
+        <v>14.8680591640184</v>
       </c>
       <c r="D15" t="n">
-        <v>15.2546474698842</v>
+        <v>14.9768778075473</v>
       </c>
       <c r="E15" t="n">
-        <v>15.9299914658211</v>
+        <v>16.598113096709</v>
       </c>
       <c r="F15" t="n">
-        <v>13.7725689015746</v>
+        <v>14.0171829786941</v>
       </c>
       <c r="G15" t="n">
-        <v>13.6563250510393</v>
+        <v>13.1153890398131</v>
       </c>
     </row>
     <row r="16">
@@ -759,22 +759,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>8.85174096631253</v>
+        <v>8.81923661926558</v>
       </c>
       <c r="C16" t="n">
-        <v>10.7832565555979</v>
+        <v>11.3331389614433</v>
       </c>
       <c r="D16" t="n">
-        <v>12.4827506514557</v>
+        <v>13.1892354400578</v>
       </c>
       <c r="E16" t="n">
-        <v>13.6925208977088</v>
+        <v>13.6312131689103</v>
       </c>
       <c r="F16" t="n">
-        <v>9.13172431583085</v>
+        <v>9.20724262477118</v>
       </c>
       <c r="G16" t="n">
-        <v>7.59125256847007</v>
+        <v>7.80788296001878</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_mean.xlsx
+++ b/xlsx/country_comparison/points_mean.xlsx
@@ -59,7 +59,8 @@
     <t xml:space="preserve">climate2: Thermal insulation plan (US: also transport)</t>
   </si>
   <si>
-    <t xml:space="preserve">climate3: Ban the sale of new combustion-engine cars by 2030</t>
+    <t xml:space="preserve">climate3: Ban the sale of new
+combustion-engine cars by 2030</t>
   </si>
   <si>
     <t xml:space="preserve">tax1: National redistribution scheme</t>
@@ -437,22 +438,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>13.4341568081612</v>
+        <v>13.4380211658986</v>
       </c>
       <c r="C2" t="n">
-        <v>21.1011814593972</v>
+        <v>21.16816562391</v>
       </c>
       <c r="D2" t="n">
-        <v>10.2687307000013</v>
+        <v>10.2669824104778</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0689412351052</v>
+        <v>14.0660323188458</v>
       </c>
       <c r="F2" t="n">
-        <v>33.7725703761314</v>
+        <v>34.66574659302</v>
       </c>
       <c r="G2" t="n">
-        <v>31.0204999829579</v>
+        <v>31.0203072047691</v>
       </c>
     </row>
     <row r="3">
@@ -460,22 +461,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0422939253684</v>
+        <v>23.0388403171059</v>
       </c>
       <c r="C3" t="n">
-        <v>22.2720423244591</v>
+        <v>22.2994711929093</v>
       </c>
       <c r="D3" t="n">
-        <v>25.2934614185111</v>
+        <v>25.2865216407809</v>
       </c>
       <c r="E3" t="n">
-        <v>20.7469009816582</v>
+        <v>20.7468913137908</v>
       </c>
       <c r="F3" t="n">
-        <v>22.4856303939815</v>
+        <v>22.2785610882858</v>
       </c>
       <c r="G3" t="n">
-        <v>23.2194328201891</v>
+        <v>23.2187612897894</v>
       </c>
     </row>
     <row r="4">
@@ -483,22 +484,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>21.226847136677</v>
+        <v>21.2287024992306</v>
       </c>
       <c r="C4" t="n">
-        <v>15.1871428366816</v>
+        <v>15.2204419489833</v>
       </c>
       <c r="D4" t="n">
-        <v>12.850731448256</v>
+        <v>12.8568700899812</v>
       </c>
       <c r="E4" t="n">
-        <v>18.2458685830623</v>
+        <v>18.2466528143617</v>
       </c>
       <c r="F4" t="n">
-        <v>16.267822720123</v>
+        <v>17.0324425206823</v>
       </c>
       <c r="G4" t="n">
-        <v>12.7666762014579</v>
+        <v>12.7662269801673</v>
       </c>
     </row>
     <row r="5">
@@ -506,22 +507,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>27.7724690455023</v>
+        <v>27.7651677414388</v>
       </c>
       <c r="C5" t="n">
-        <v>21.8709029103425</v>
+        <v>21.7987341324273</v>
       </c>
       <c r="D5" t="n">
-        <v>27.336744911919</v>
+        <v>27.3375698142198</v>
       </c>
       <c r="E5" t="n">
-        <v>17.4471967230454</v>
+        <v>17.4478992460948</v>
       </c>
       <c r="F5" t="n">
-        <v>24.1300574411812</v>
+        <v>24.0452987783057</v>
       </c>
       <c r="G5" t="n">
-        <v>20.3442859797975</v>
+        <v>20.3448598498928</v>
       </c>
     </row>
     <row r="6">
@@ -529,22 +530,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>10.1883020310455</v>
+        <v>10.1906132579199</v>
       </c>
       <c r="C6" t="n">
-        <v>16.5935406552981</v>
+        <v>16.5989523466066</v>
       </c>
       <c r="D6" t="n">
-        <v>13.2599868441119</v>
+        <v>13.2622102355516</v>
       </c>
       <c r="E6" t="n">
-        <v>17.0153776789283</v>
+        <v>17.0147075292908</v>
       </c>
       <c r="F6" t="n">
-        <v>12.1410472467563</v>
+        <v>11.9044162533237</v>
       </c>
       <c r="G6" t="n">
-        <v>21.3050301220087</v>
+        <v>21.3071614928157</v>
       </c>
     </row>
     <row r="7">
@@ -552,22 +553,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3821457792595</v>
+        <v>13.3797440916754</v>
       </c>
       <c r="C7" t="n">
-        <v>9.50438140229945</v>
+        <v>9.48911232174849</v>
       </c>
       <c r="D7" t="n">
-        <v>13.9624912340961</v>
+        <v>13.9620767832842</v>
       </c>
       <c r="E7" t="n">
-        <v>8.02513529069277</v>
+        <v>8.02517748438454</v>
       </c>
       <c r="F7" t="n">
-        <v>9.50155526949324</v>
+        <v>9.51710697815763</v>
       </c>
       <c r="G7" t="n">
-        <v>7.50184944745286</v>
+        <v>7.50138325624376</v>
       </c>
     </row>
     <row r="8">
@@ -575,22 +576,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>13.7029342469336</v>
+        <v>13.7042389596488</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2187750056284</v>
+        <v>15.1783568543692</v>
       </c>
       <c r="D8" t="n">
-        <v>11.4479074056977</v>
+        <v>11.4493823348046</v>
       </c>
       <c r="E8" t="n">
-        <v>17.5085401320051</v>
+        <v>17.5084752667181</v>
       </c>
       <c r="F8" t="n">
-        <v>19.5433035837634</v>
+        <v>19.8678505071403</v>
       </c>
       <c r="G8" t="n">
-        <v>12.4358202626166</v>
+        <v>12.4360000470448</v>
       </c>
     </row>
     <row r="9">
@@ -598,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>19.750827534774</v>
+        <v>19.7507435781098</v>
       </c>
       <c r="C9" t="n">
-        <v>18.3685003289164</v>
+        <v>18.4084854350241</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0680454504313</v>
+        <v>22.0698628580986</v>
       </c>
       <c r="E9" t="n">
-        <v>18.6326875618201</v>
+        <v>18.633662046472</v>
       </c>
       <c r="F9" t="n">
-        <v>14.580904908348</v>
+        <v>15.0915531302689</v>
       </c>
       <c r="G9" t="n">
-        <v>16.5454056273926</v>
+        <v>16.5447473344318</v>
       </c>
     </row>
     <row r="10">
@@ -621,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>10.5548976294697</v>
+        <v>10.5530473217693</v>
       </c>
       <c r="C10" t="n">
-        <v>9.05385369294387</v>
+        <v>9.13927914552725</v>
       </c>
       <c r="D10" t="n">
-        <v>7.74930207696273</v>
+        <v>7.75128253376044</v>
       </c>
       <c r="E10" t="n">
-        <v>7.88677920968235</v>
+        <v>7.88718584152594</v>
       </c>
       <c r="F10" t="n">
-        <v>8.35688326602716</v>
+        <v>8.92672836397638</v>
       </c>
       <c r="G10" t="n">
-        <v>11.43861621882</v>
+        <v>11.4380129475614</v>
       </c>
     </row>
     <row r="11">
@@ -644,22 +645,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>13.5833131639366</v>
+        <v>13.5810946595551</v>
       </c>
       <c r="C11" t="n">
-        <v>15.2214813109547</v>
+        <v>15.2843390865714</v>
       </c>
       <c r="D11" t="n">
-        <v>15.5360574790189</v>
+        <v>15.536171078774</v>
       </c>
       <c r="E11" t="n">
-        <v>15.395388364277</v>
+        <v>15.3959461986994</v>
       </c>
       <c r="F11" t="n">
-        <v>15.2003779074386</v>
+        <v>14.6103740705588</v>
       </c>
       <c r="G11" t="n">
-        <v>15.0959134387462</v>
+        <v>15.0951849691516</v>
       </c>
     </row>
     <row r="12">
@@ -667,22 +668,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>19.0356774935159</v>
+        <v>19.0358810776434</v>
       </c>
       <c r="C12" t="n">
-        <v>18.9099105514842</v>
+        <v>18.8810520681388</v>
       </c>
       <c r="D12" t="n">
-        <v>21.13548919729</v>
+        <v>21.1336387226578</v>
       </c>
       <c r="E12" t="n">
-        <v>18.329661103185</v>
+        <v>18.3283670658686</v>
       </c>
       <c r="F12" t="n">
-        <v>16.6254251616934</v>
+        <v>16.8173229167799</v>
       </c>
       <c r="G12" t="n">
-        <v>19.4056591092634</v>
+        <v>19.4059316927978</v>
       </c>
     </row>
     <row r="13">
@@ -690,22 +691,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>15.4005809613817</v>
+        <v>15.4001299565062</v>
       </c>
       <c r="C13" t="n">
-        <v>19.8056264122474</v>
+        <v>19.7543351996458</v>
       </c>
       <c r="D13" t="n">
-        <v>20.2156239967134</v>
+        <v>20.2175904665103</v>
       </c>
       <c r="E13" t="n">
-        <v>22.9297880088363</v>
+        <v>22.9304388822142</v>
       </c>
       <c r="F13" t="n">
-        <v>16.4097083323068</v>
+        <v>15.7930028636411</v>
       </c>
       <c r="G13" t="n">
-        <v>17.3465588315424</v>
+        <v>17.3464575779214</v>
       </c>
     </row>
     <row r="14">
@@ -713,22 +714,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6290140862445</v>
+        <v>20.630826845836</v>
       </c>
       <c r="C14" t="n">
-        <v>20.7072796003044</v>
+        <v>20.494327864641</v>
       </c>
       <c r="D14" t="n">
-        <v>20.2473130485682</v>
+        <v>20.2432809972006</v>
       </c>
       <c r="E14" t="n">
-        <v>22.9189334163752</v>
+        <v>22.9192460201223</v>
       </c>
       <c r="F14" t="n">
-        <v>20.4634707641798</v>
+        <v>18.8902855153882</v>
       </c>
       <c r="G14" t="n">
-        <v>19.8684650369788</v>
+        <v>19.8689249504851</v>
       </c>
     </row>
     <row r="15">
@@ -736,22 +737,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6457036649508</v>
+        <v>14.646697373968</v>
       </c>
       <c r="C15" t="n">
-        <v>14.8680591640184</v>
+        <v>14.929995246853</v>
       </c>
       <c r="D15" t="n">
-        <v>14.9768778075473</v>
+        <v>14.9744660774664</v>
       </c>
       <c r="E15" t="n">
-        <v>16.598113096709</v>
+        <v>16.5981211255882</v>
       </c>
       <c r="F15" t="n">
-        <v>14.0171829786941</v>
+        <v>14.0316157684822</v>
       </c>
       <c r="G15" t="n">
-        <v>13.1153890398131</v>
+        <v>13.115057527118</v>
       </c>
     </row>
     <row r="16">
@@ -759,22 +760,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>8.81923661926558</v>
+        <v>8.82406787750107</v>
       </c>
       <c r="C16" t="n">
-        <v>11.3331389614433</v>
+        <v>11.3857446505851</v>
       </c>
       <c r="D16" t="n">
-        <v>13.1892354400578</v>
+        <v>13.1906609780877</v>
       </c>
       <c r="E16" t="n">
-        <v>13.6312131689103</v>
+        <v>13.6313433087221</v>
       </c>
       <c r="F16" t="n">
-        <v>9.20724262477118</v>
+        <v>9.48924251360694</v>
       </c>
       <c r="G16" t="n">
-        <v>7.80788296001878</v>
+        <v>7.80748943437355</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/points_mean.xlsx
+++ b/xlsx/country_comparison/points_mean.xlsx
@@ -59,8 +59,7 @@
     <t xml:space="preserve">climate2: Thermal insulation plan (US: also transport)</t>
   </si>
   <si>
-    <t xml:space="preserve">climate3: Ban the sale of new
-combustion-engine cars by 2030</t>
+    <t xml:space="preserve">climate3: Ban the sale of new combustion-engine cars by 2030</t>
   </si>
   <si>
     <t xml:space="preserve">tax1: National redistribution scheme</t>
